--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6561587232231</v>
+        <v>27.91686566666667</v>
       </c>
       <c r="N2">
-        <v>21.6561587232231</v>
+        <v>83.750597</v>
       </c>
       <c r="O2">
-        <v>0.7075647700377722</v>
+        <v>0.7394739524872079</v>
       </c>
       <c r="P2">
-        <v>0.7075647700377722</v>
+        <v>0.739473952487208</v>
       </c>
       <c r="Q2">
-        <v>632.345319424128</v>
+        <v>890.8374847467643</v>
       </c>
       <c r="R2">
-        <v>632.345319424128</v>
+        <v>8017.537362720878</v>
       </c>
       <c r="S2">
-        <v>0.4027277975956655</v>
+        <v>0.4288787530252713</v>
       </c>
       <c r="T2">
-        <v>0.4027277975956655</v>
+        <v>0.4288787530252715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.88060669999188</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N3">
-        <v>4.88060669999188</v>
+        <v>14.775467</v>
       </c>
       <c r="O3">
-        <v>0.1594625067843334</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="P3">
-        <v>0.1594625067843334</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="Q3">
-        <v>142.5104443559684</v>
+        <v>157.1635347057743</v>
       </c>
       <c r="R3">
-        <v>142.5104443559684</v>
+        <v>1414.471812351969</v>
       </c>
       <c r="S3">
-        <v>0.09076198657108124</v>
+        <v>0.07566374556501426</v>
       </c>
       <c r="T3">
-        <v>0.09076198657108124</v>
+        <v>0.07566374556501428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H4">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J4">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.06984423326498</v>
+        <v>0.043902</v>
       </c>
       <c r="N4">
-        <v>4.06984423326498</v>
+        <v>0.131706</v>
       </c>
       <c r="O4">
-        <v>0.1329727231778944</v>
+        <v>0.001162895070303561</v>
       </c>
       <c r="P4">
-        <v>0.1329727231778944</v>
+        <v>0.001162895070303561</v>
       </c>
       <c r="Q4">
-        <v>118.8367237505805</v>
+        <v>1.400929019838</v>
       </c>
       <c r="R4">
-        <v>118.8367237505805</v>
+        <v>12.608361178542</v>
       </c>
       <c r="S4">
-        <v>0.07568467822793487</v>
+        <v>0.0006744537599647963</v>
       </c>
       <c r="T4">
-        <v>0.07568467822793487</v>
+        <v>0.0006744537599647964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H5">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J5">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>21.6561587232231</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N5">
-        <v>21.6561587232231</v>
+        <v>0.18683</v>
       </c>
       <c r="O5">
-        <v>0.7075647700377722</v>
+        <v>0.001649611148959154</v>
       </c>
       <c r="P5">
-        <v>0.7075647700377722</v>
+        <v>0.001649611148959154</v>
       </c>
       <c r="Q5">
-        <v>242.5037330798196</v>
+        <v>1.987271413423333</v>
       </c>
       <c r="R5">
-        <v>242.5037330798196</v>
+        <v>17.88544272081</v>
       </c>
       <c r="S5">
-        <v>0.1544456665242716</v>
+        <v>0.0009567384627444679</v>
       </c>
       <c r="T5">
-        <v>0.1544456665242716</v>
+        <v>0.0009567384627444681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H6">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I6">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J6">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.88060669999188</v>
+        <v>4.804131333333333</v>
       </c>
       <c r="N6">
-        <v>4.88060669999188</v>
+        <v>14.412394</v>
       </c>
       <c r="O6">
-        <v>0.1594625067843334</v>
+        <v>0.1272538983332014</v>
       </c>
       <c r="P6">
-        <v>0.1594625067843334</v>
+        <v>0.1272538983332014</v>
       </c>
       <c r="Q6">
-        <v>54.65259834714857</v>
+        <v>153.3016035711287</v>
       </c>
       <c r="R6">
-        <v>54.65259834714857</v>
+        <v>1379.714432140158</v>
       </c>
       <c r="S6">
-        <v>0.03480712181956545</v>
+        <v>0.07380448364838406</v>
       </c>
       <c r="T6">
-        <v>0.03480712181956545</v>
+        <v>0.07380448364838406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J7">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.06984423326498</v>
+        <v>27.91686566666667</v>
       </c>
       <c r="N7">
-        <v>4.06984423326498</v>
+        <v>83.750597</v>
       </c>
       <c r="O7">
-        <v>0.1329727231778944</v>
+        <v>0.7394739524872079</v>
       </c>
       <c r="P7">
-        <v>0.1329727231778944</v>
+        <v>0.739473952487208</v>
       </c>
       <c r="Q7">
-        <v>45.5737525862225</v>
+        <v>318.8239222582563</v>
       </c>
       <c r="R7">
-        <v>45.5737525862225</v>
+        <v>2869.415300324307</v>
       </c>
       <c r="S7">
-        <v>0.02902499068694591</v>
+        <v>0.1534924254468443</v>
       </c>
       <c r="T7">
-        <v>0.02902499068694591</v>
+        <v>0.1534924254468444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H8">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J8">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.6561587232231</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N8">
-        <v>21.6561587232231</v>
+        <v>14.775467</v>
       </c>
       <c r="O8">
-        <v>0.7075647700377722</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="P8">
-        <v>0.7075647700377722</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="Q8">
-        <v>8.036513967432148</v>
+        <v>56.24762701258633</v>
       </c>
       <c r="R8">
-        <v>8.036513967432148</v>
+        <v>506.228643113277</v>
       </c>
       <c r="S8">
-        <v>0.005118291337078661</v>
+        <v>0.02707947582677898</v>
       </c>
       <c r="T8">
-        <v>0.005118291337078661</v>
+        <v>0.02707947582677899</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H9">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J9">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>4.88060669999188</v>
+        <v>0.043902</v>
       </c>
       <c r="N9">
-        <v>4.88060669999188</v>
+        <v>0.131706</v>
       </c>
       <c r="O9">
-        <v>0.1594625067843334</v>
+        <v>0.001162895070303561</v>
       </c>
       <c r="P9">
-        <v>0.1594625067843334</v>
+        <v>0.001162895070303561</v>
       </c>
       <c r="Q9">
-        <v>1.811173644196032</v>
+        <v>0.501381781254</v>
       </c>
       <c r="R9">
-        <v>1.811173644196032</v>
+        <v>4.512436031286</v>
       </c>
       <c r="S9">
-        <v>0.001153499441499229</v>
+        <v>0.0002413818421605051</v>
       </c>
       <c r="T9">
-        <v>0.001153499441499229</v>
+        <v>0.0002413818421605052</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.371096004150272</v>
+        <v>11.420477</v>
       </c>
       <c r="H10">
-        <v>0.371096004150272</v>
+        <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J10">
-        <v>0.00723367181891409</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.06984423326498</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N10">
-        <v>4.06984423326498</v>
+        <v>0.18683</v>
       </c>
       <c r="O10">
-        <v>0.1329727231778944</v>
+        <v>0.001649611148959154</v>
       </c>
       <c r="P10">
-        <v>0.1329727231778944</v>
+        <v>0.001649611148959154</v>
       </c>
       <c r="Q10">
-        <v>1.510302932478661</v>
+        <v>0.7112292393033334</v>
       </c>
       <c r="R10">
-        <v>1.510302932478661</v>
+        <v>6.40106315373</v>
       </c>
       <c r="S10">
-        <v>0.0009618810403361992</v>
+        <v>0.0003424093782428073</v>
       </c>
       <c r="T10">
-        <v>0.0009618810403361992</v>
+        <v>0.0003424093782428074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.387740711516154</v>
+        <v>11.420477</v>
       </c>
       <c r="H11">
-        <v>0.387740711516154</v>
+        <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J11">
-        <v>0.007558122498145594</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.6561587232231</v>
+        <v>4.804131333333333</v>
       </c>
       <c r="N11">
-        <v>21.6561587232231</v>
+        <v>14.412394</v>
       </c>
       <c r="O11">
-        <v>0.7075647700377722</v>
+        <v>0.1272538983332014</v>
       </c>
       <c r="P11">
-        <v>0.7075647700377722</v>
+        <v>0.1272538983332014</v>
       </c>
       <c r="Q11">
-        <v>8.396974392049291</v>
+        <v>54.86547139731267</v>
       </c>
       <c r="R11">
-        <v>8.396974392049291</v>
+        <v>493.789242575814</v>
       </c>
       <c r="S11">
-        <v>0.005347861207317699</v>
+        <v>0.02641406020730272</v>
       </c>
       <c r="T11">
-        <v>0.005347861207317699</v>
+        <v>0.02641406020730272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H12">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I12">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J12">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.88060669999188</v>
+        <v>27.91686566666667</v>
       </c>
       <c r="N12">
-        <v>4.88060669999188</v>
+        <v>83.750597</v>
       </c>
       <c r="O12">
-        <v>0.1594625067843334</v>
+        <v>0.7394739524872079</v>
       </c>
       <c r="P12">
-        <v>0.1594625067843334</v>
+        <v>0.739473952487208</v>
       </c>
       <c r="Q12">
-        <v>1.89240991448536</v>
+        <v>19.08534660177289</v>
       </c>
       <c r="R12">
-        <v>1.89240991448536</v>
+        <v>171.768119415956</v>
       </c>
       <c r="S12">
-        <v>0.001205237160137365</v>
+        <v>0.009188319746053645</v>
       </c>
       <c r="T12">
-        <v>0.001205237160137365</v>
+        <v>0.009188319746053646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387740711516154</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H13">
-        <v>0.387740711516154</v>
+        <v>2.050948</v>
       </c>
       <c r="I13">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J13">
-        <v>0.007558122498145594</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.06984423326498</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N13">
-        <v>4.06984423326498</v>
+        <v>14.775467</v>
       </c>
       <c r="O13">
-        <v>0.1329727231778944</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="P13">
-        <v>0.1329727231778944</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="Q13">
-        <v>1.578044298766079</v>
+        <v>3.367079388079555</v>
       </c>
       <c r="R13">
-        <v>1.578044298766079</v>
+        <v>30.303714492716</v>
       </c>
       <c r="S13">
-        <v>0.00100502413069053</v>
+        <v>0.001621023850054036</v>
       </c>
       <c r="T13">
-        <v>0.00100502413069053</v>
+        <v>0.001621023850054036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H14">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I14">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J14">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>21.6561587232231</v>
+        <v>0.043902</v>
       </c>
       <c r="N14">
-        <v>21.6561587232231</v>
+        <v>0.131706</v>
       </c>
       <c r="O14">
-        <v>0.7075647700377722</v>
+        <v>0.001162895070303561</v>
       </c>
       <c r="P14">
-        <v>0.7075647700377722</v>
+        <v>0.001162895070303561</v>
       </c>
       <c r="Q14">
-        <v>13.35101660941435</v>
+        <v>0.030013573032</v>
       </c>
       <c r="R14">
-        <v>13.35101660941435</v>
+        <v>0.270122157288</v>
       </c>
       <c r="S14">
-        <v>0.00850298934713271</v>
+        <v>1.444953091467206E-05</v>
       </c>
       <c r="T14">
-        <v>0.00850298934713271</v>
+        <v>1.444953091467206E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H15">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I15">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J15">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.88060669999188</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N15">
-        <v>4.88060669999188</v>
+        <v>0.18683</v>
       </c>
       <c r="O15">
-        <v>0.1594625067843334</v>
+        <v>0.001649611148959154</v>
       </c>
       <c r="P15">
-        <v>0.1594625067843334</v>
+        <v>0.001649611148959154</v>
       </c>
       <c r="Q15">
-        <v>3.00889284883818</v>
+        <v>0.04257540164888889</v>
       </c>
       <c r="R15">
-        <v>3.00889284883818</v>
+        <v>0.38317861484</v>
       </c>
       <c r="S15">
-        <v>0.001916302300327759</v>
+        <v>2.049721243366423E-05</v>
       </c>
       <c r="T15">
-        <v>0.001916302300327759</v>
+        <v>2.049721243366424E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.616499757877066</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H16">
-        <v>0.616499757877066</v>
+        <v>2.050948</v>
       </c>
       <c r="I16">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J16">
-        <v>0.01201725934811423</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.06984423326498</v>
+        <v>4.804131333333333</v>
       </c>
       <c r="N16">
-        <v>4.06984423326498</v>
+        <v>14.412394</v>
       </c>
       <c r="O16">
-        <v>0.1329727231778944</v>
+        <v>0.1272538983332014</v>
       </c>
       <c r="P16">
-        <v>0.1329727231778944</v>
+        <v>0.1272538983332014</v>
       </c>
       <c r="Q16">
-        <v>2.509057984405233</v>
+        <v>3.284341183279111</v>
       </c>
       <c r="R16">
-        <v>2.509057984405233</v>
+        <v>29.559070649512</v>
       </c>
       <c r="S16">
-        <v>0.001597967700653757</v>
+        <v>0.001581190930234265</v>
       </c>
       <c r="T16">
-        <v>0.001597967700653757</v>
+        <v>0.001581190930234265</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52861740667934</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H17">
-        <v>9.52861740667934</v>
+        <v>1.347404</v>
       </c>
       <c r="I17">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J17">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.6561587232231</v>
+        <v>27.91686566666667</v>
       </c>
       <c r="N17">
-        <v>21.6561587232231</v>
+        <v>83.750597</v>
       </c>
       <c r="O17">
-        <v>0.7075647700377722</v>
+        <v>0.7394739524872079</v>
       </c>
       <c r="P17">
-        <v>0.7075647700377722</v>
+        <v>0.739473952487208</v>
       </c>
       <c r="Q17">
-        <v>206.3532509719143</v>
+        <v>12.53843215557644</v>
       </c>
       <c r="R17">
-        <v>206.3532509719143</v>
+        <v>112.845889400188</v>
       </c>
       <c r="S17">
-        <v>0.131422164026306</v>
+        <v>0.00603641768543701</v>
       </c>
       <c r="T17">
-        <v>0.131422164026306</v>
+        <v>0.006036417685437011</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,114 +1529,858 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52861740667934</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H18">
-        <v>9.52861740667934</v>
+        <v>1.347404</v>
       </c>
       <c r="I18">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J18">
-        <v>0.1857387049093616</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.88060669999188</v>
+        <v>4.925155666666666</v>
       </c>
       <c r="N18">
-        <v>4.88060669999188</v>
+        <v>14.775467</v>
       </c>
       <c r="O18">
-        <v>0.1594625067843334</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="P18">
-        <v>0.1594625067843334</v>
+        <v>0.1304596429603279</v>
       </c>
       <c r="Q18">
-        <v>46.50543395669843</v>
+        <v>2.212058148629778</v>
       </c>
       <c r="R18">
-        <v>46.50543395669843</v>
+        <v>19.908523337668</v>
       </c>
       <c r="S18">
-        <v>0.02961835949172237</v>
+        <v>0.001064958263036512</v>
       </c>
       <c r="T18">
-        <v>0.02961835949172237</v>
+        <v>0.001064958263036512</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.347404</v>
+      </c>
+      <c r="I19">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J19">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.043902</v>
+      </c>
+      <c r="N19">
+        <v>0.131706</v>
+      </c>
+      <c r="O19">
+        <v>0.001162895070303561</v>
+      </c>
+      <c r="P19">
+        <v>0.001162895070303561</v>
+      </c>
+      <c r="Q19">
+        <v>0.019717910136</v>
+      </c>
+      <c r="R19">
+        <v>0.177461191224</v>
+      </c>
+      <c r="S19">
+        <v>9.492856841106059E-06</v>
+      </c>
+      <c r="T19">
+        <v>9.492856841106061E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.347404</v>
+      </c>
+      <c r="I20">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J20">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.06227666666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.18683</v>
+      </c>
+      <c r="O20">
+        <v>0.001649611148959154</v>
+      </c>
+      <c r="P20">
+        <v>0.001649611148959154</v>
+      </c>
+      <c r="Q20">
+        <v>0.02797060992444445</v>
+      </c>
+      <c r="R20">
+        <v>0.25173548932</v>
+      </c>
+      <c r="S20">
+        <v>1.346598062065392E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.346598062065392E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.347404</v>
+      </c>
+      <c r="I21">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J21">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.804131333333333</v>
+      </c>
+      <c r="N21">
+        <v>14.412394</v>
+      </c>
+      <c r="O21">
+        <v>0.1272538983332014</v>
+      </c>
+      <c r="P21">
+        <v>0.1272538983332014</v>
+      </c>
+      <c r="Q21">
+        <v>2.157701925019555</v>
+      </c>
+      <c r="R21">
+        <v>19.419317325176</v>
+      </c>
+      <c r="S21">
+        <v>0.001038789371627837</v>
+      </c>
+      <c r="T21">
+        <v>0.001038789371627837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.970496</v>
+      </c>
+      <c r="I22">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J22">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>27.91686566666667</v>
+      </c>
+      <c r="N22">
+        <v>83.750597</v>
+      </c>
+      <c r="O22">
+        <v>0.7394739524872079</v>
+      </c>
+      <c r="P22">
+        <v>0.739473952487208</v>
+      </c>
+      <c r="Q22">
+        <v>18.336690709568</v>
+      </c>
+      <c r="R22">
+        <v>165.030216386112</v>
+      </c>
+      <c r="S22">
+        <v>0.008827891934032323</v>
+      </c>
+      <c r="T22">
+        <v>0.008827891934032325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H23">
+        <v>1.970496</v>
+      </c>
+      <c r="I23">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J23">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.925155666666666</v>
+      </c>
+      <c r="N23">
+        <v>14.775467</v>
+      </c>
+      <c r="O23">
+        <v>0.1304596429603279</v>
+      </c>
+      <c r="P23">
+        <v>0.1304596429603279</v>
+      </c>
+      <c r="Q23">
+        <v>3.234999846848</v>
+      </c>
+      <c r="R23">
+        <v>29.114998621632</v>
+      </c>
+      <c r="S23">
+        <v>0.001557436372075781</v>
+      </c>
+      <c r="T23">
+        <v>0.001557436372075781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H24">
+        <v>1.970496</v>
+      </c>
+      <c r="I24">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J24">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.043902</v>
+      </c>
+      <c r="N24">
+        <v>0.131706</v>
+      </c>
+      <c r="O24">
+        <v>0.001162895070303561</v>
+      </c>
+      <c r="P24">
+        <v>0.001162895070303561</v>
+      </c>
+      <c r="Q24">
+        <v>0.028836238464</v>
+      </c>
+      <c r="R24">
+        <v>0.259526146176</v>
+      </c>
+      <c r="S24">
+        <v>1.388272295018579E-05</v>
+      </c>
+      <c r="T24">
+        <v>1.388272295018579E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H25">
+        <v>1.970496</v>
+      </c>
+      <c r="I25">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J25">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.06227666666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.18683</v>
+      </c>
+      <c r="O25">
+        <v>0.001649611148959154</v>
+      </c>
+      <c r="P25">
+        <v>0.001649611148959154</v>
+      </c>
+      <c r="Q25">
+        <v>0.04090530752</v>
+      </c>
+      <c r="R25">
+        <v>0.36814776768</v>
+      </c>
+      <c r="S25">
+        <v>1.96931736502757E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.96931736502757E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>9.52861740667934</v>
-      </c>
-      <c r="H19">
-        <v>9.52861740667934</v>
-      </c>
-      <c r="I19">
-        <v>0.1857387049093616</v>
-      </c>
-      <c r="J19">
-        <v>0.1857387049093616</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.06984423326498</v>
-      </c>
-      <c r="N19">
-        <v>4.06984423326498</v>
-      </c>
-      <c r="O19">
-        <v>0.1329727231778944</v>
-      </c>
-      <c r="P19">
-        <v>0.1329727231778944</v>
-      </c>
-      <c r="Q19">
-        <v>38.77998860356222</v>
-      </c>
-      <c r="R19">
-        <v>38.77998860356222</v>
-      </c>
-      <c r="S19">
-        <v>0.02469818139133316</v>
-      </c>
-      <c r="T19">
-        <v>0.02469818139133316</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H26">
+        <v>1.970496</v>
+      </c>
+      <c r="I26">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J26">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.804131333333333</v>
+      </c>
+      <c r="N26">
+        <v>14.412394</v>
+      </c>
+      <c r="O26">
+        <v>0.1272538983332014</v>
+      </c>
+      <c r="P26">
+        <v>0.1272538983332014</v>
+      </c>
+      <c r="Q26">
+        <v>3.155507191936</v>
+      </c>
+      <c r="R26">
+        <v>28.399564727424</v>
+      </c>
+      <c r="S26">
+        <v>0.001519165967768514</v>
+      </c>
+      <c r="T26">
+        <v>0.001519165967768514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9.899486</v>
+      </c>
+      <c r="H27">
+        <v>29.698458</v>
+      </c>
+      <c r="I27">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J27">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>27.91686566666667</v>
+      </c>
+      <c r="N27">
+        <v>83.750597</v>
+      </c>
+      <c r="O27">
+        <v>0.7394739524872079</v>
+      </c>
+      <c r="P27">
+        <v>0.739473952487208</v>
+      </c>
+      <c r="Q27">
+        <v>276.3626208310473</v>
+      </c>
+      <c r="R27">
+        <v>2487.263587479426</v>
+      </c>
+      <c r="S27">
+        <v>0.1330501446495693</v>
+      </c>
+      <c r="T27">
+        <v>0.1330501446495693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>9.899486</v>
+      </c>
+      <c r="H28">
+        <v>29.698458</v>
+      </c>
+      <c r="I28">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J28">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>4.925155666666666</v>
+      </c>
+      <c r="N28">
+        <v>14.775467</v>
+      </c>
+      <c r="O28">
+        <v>0.1304596429603279</v>
+      </c>
+      <c r="P28">
+        <v>0.1304596429603279</v>
+      </c>
+      <c r="Q28">
+        <v>48.75650956998732</v>
+      </c>
+      <c r="R28">
+        <v>438.808586129886</v>
+      </c>
+      <c r="S28">
+        <v>0.02347300308336832</v>
+      </c>
+      <c r="T28">
+        <v>0.02347300308336832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>9.899486</v>
+      </c>
+      <c r="H29">
+        <v>29.698458</v>
+      </c>
+      <c r="I29">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J29">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.043902</v>
+      </c>
+      <c r="N29">
+        <v>0.131706</v>
+      </c>
+      <c r="O29">
+        <v>0.001162895070303561</v>
+      </c>
+      <c r="P29">
+        <v>0.001162895070303561</v>
+      </c>
+      <c r="Q29">
+        <v>0.4346072343719999</v>
+      </c>
+      <c r="R29">
+        <v>3.911465109348</v>
+      </c>
+      <c r="S29">
+        <v>0.0002092343574722956</v>
+      </c>
+      <c r="T29">
+        <v>0.0002092343574722957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>9.899486</v>
+      </c>
+      <c r="H30">
+        <v>29.698458</v>
+      </c>
+      <c r="I30">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J30">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.06227666666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.18683</v>
+      </c>
+      <c r="O30">
+        <v>0.001649611148959154</v>
+      </c>
+      <c r="P30">
+        <v>0.001649611148959154</v>
+      </c>
+      <c r="Q30">
+        <v>0.6165069897933333</v>
+      </c>
+      <c r="R30">
+        <v>5.54856290814</v>
+      </c>
+      <c r="S30">
+        <v>0.0002968069412672846</v>
+      </c>
+      <c r="T30">
+        <v>0.0002968069412672848</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9.899486</v>
+      </c>
+      <c r="H31">
+        <v>29.698458</v>
+      </c>
+      <c r="I31">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J31">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.804131333333333</v>
+      </c>
+      <c r="N31">
+        <v>14.412394</v>
+      </c>
+      <c r="O31">
+        <v>0.1272538983332014</v>
+      </c>
+      <c r="P31">
+        <v>0.1272538983332014</v>
+      </c>
+      <c r="Q31">
+        <v>47.55843087649466</v>
+      </c>
+      <c r="R31">
+        <v>428.0258778884519</v>
+      </c>
+      <c r="S31">
+        <v>0.02289620820788399</v>
+      </c>
+      <c r="T31">
+        <v>0.02289620820788399</v>
       </c>
     </row>
   </sheetData>
